--- a/Code/Results/Cases/Case_4_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.381349303707083</v>
+        <v>1.358186072990634</v>
       </c>
       <c r="C2">
-        <v>0.1131158735816484</v>
+        <v>0.03435164755344999</v>
       </c>
       <c r="D2">
-        <v>0.2752048701495653</v>
+        <v>0.4825267819929024</v>
       </c>
       <c r="E2">
-        <v>0.06122464369271796</v>
+        <v>0.1405418174164286</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.35916745454449</v>
+        <v>2.395263194951099</v>
       </c>
       <c r="H2">
-        <v>0.9131232151733286</v>
+        <v>1.966873903713463</v>
       </c>
       <c r="I2">
-        <v>0.9607420470250716</v>
+        <v>1.937923625467633</v>
       </c>
       <c r="J2">
-        <v>0.01490498719090261</v>
+        <v>0.04188490355932917</v>
       </c>
       <c r="K2">
-        <v>1.289081093128885</v>
+        <v>1.036683649955421</v>
       </c>
       <c r="L2">
-        <v>0.3356329093284387</v>
+        <v>0.536819484399345</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.546142441346895</v>
+        <v>3.11950807204979</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.219438062740039</v>
+        <v>1.322521896112931</v>
       </c>
       <c r="C3">
-        <v>0.0979165395202557</v>
+        <v>0.03000589728560499</v>
       </c>
       <c r="D3">
-        <v>0.2564385025511626</v>
+        <v>0.4802977967310227</v>
       </c>
       <c r="E3">
-        <v>0.05896947335475033</v>
+        <v>0.1406360495989247</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.314118606957877</v>
+        <v>2.396181371587545</v>
       </c>
       <c r="H3">
-        <v>0.9004725098565274</v>
+        <v>1.972882305250238</v>
       </c>
       <c r="I3">
-        <v>0.9471057198336155</v>
+        <v>1.943688605464473</v>
       </c>
       <c r="J3">
-        <v>0.01500386406735044</v>
+        <v>0.04197150157384888</v>
       </c>
       <c r="K3">
-        <v>1.129711168216687</v>
+        <v>0.9994991532403219</v>
       </c>
       <c r="L3">
-        <v>0.3087330053937904</v>
+        <v>0.5328514373847639</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.596475590042303</v>
+        <v>3.141374819484959</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.121252490695611</v>
+        <v>1.301299087843944</v>
       </c>
       <c r="C4">
-        <v>0.08865998145442688</v>
+        <v>0.02733937641094997</v>
       </c>
       <c r="D4">
-        <v>0.2452447964364808</v>
+        <v>0.4791285239344631</v>
       </c>
       <c r="E4">
-        <v>0.05765056609824981</v>
+        <v>0.1407397137084914</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.28860974470382</v>
+        <v>2.397784435433266</v>
       </c>
       <c r="H4">
-        <v>0.8939238532998246</v>
+        <v>1.977256265914662</v>
       </c>
       <c r="I4">
-        <v>0.9401014924304505</v>
+        <v>1.947948332756972</v>
       </c>
       <c r="J4">
-        <v>0.01506873470477421</v>
+        <v>0.0420280558851478</v>
       </c>
       <c r="K4">
-        <v>1.03297878822832</v>
+        <v>0.9772068731510899</v>
       </c>
       <c r="L4">
-        <v>0.2926181905253742</v>
+        <v>0.5306493398677787</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.628995921394306</v>
+        <v>3.155597615098401</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.081521153561795</v>
+        <v>1.292820888855829</v>
       </c>
       <c r="C5">
-        <v>0.08490361771291077</v>
+        <v>0.02625316874153327</v>
       </c>
       <c r="D5">
-        <v>0.2407612277879565</v>
+        <v>0.4787022508438383</v>
       </c>
       <c r="E5">
-        <v>0.05712896744276641</v>
+        <v>0.1407935008334622</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.278727342400558</v>
+        <v>2.398699065556059</v>
       </c>
       <c r="H5">
-        <v>0.8915489263124385</v>
+        <v>1.979211031126383</v>
       </c>
       <c r="I5">
-        <v>0.9375763456698891</v>
+        <v>1.949865351541881</v>
       </c>
       <c r="J5">
-        <v>0.01509620734360495</v>
+        <v>0.04205195503304981</v>
       </c>
       <c r="K5">
-        <v>0.9938121581752455</v>
+        <v>0.9682585057409199</v>
       </c>
       <c r="L5">
-        <v>0.2861457335439894</v>
+        <v>0.5298109853888633</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.642644123137764</v>
+        <v>3.161593829268995</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.074939900389808</v>
+        <v>1.291423388869475</v>
       </c>
       <c r="C6">
-        <v>0.08428073488627774</v>
+        <v>0.02607282940918765</v>
       </c>
       <c r="D6">
-        <v>0.2400213092948889</v>
+        <v>0.4786345040824358</v>
       </c>
       <c r="E6">
-        <v>0.05704329574168909</v>
+        <v>0.1408031300627535</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.27711654474011</v>
+        <v>2.398866726128276</v>
       </c>
       <c r="H6">
-        <v>0.8911719504105804</v>
+        <v>1.979546031742458</v>
       </c>
       <c r="I6">
-        <v>0.9371765038648547</v>
+        <v>1.950194614590224</v>
       </c>
       <c r="J6">
-        <v>0.01510083156954023</v>
+        <v>0.04205597503987146</v>
       </c>
       <c r="K6">
-        <v>0.9873229998168256</v>
+        <v>0.9667808554555108</v>
       </c>
       <c r="L6">
-        <v>0.2850765070364076</v>
+        <v>0.5296753448277514</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.644934017556807</v>
+        <v>3.16260159481979</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.120715562848545</v>
+        <v>1.301184057818773</v>
       </c>
       <c r="C7">
-        <v>0.08860926225754895</v>
+        <v>0.02732472576529688</v>
       </c>
       <c r="D7">
-        <v>0.2451840198971524</v>
+        <v>0.4791225716263483</v>
       </c>
       <c r="E7">
-        <v>0.05764346825409383</v>
+        <v>0.1407403923290662</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.288474427596597</v>
+        <v>2.397795712150241</v>
       </c>
       <c r="H7">
-        <v>0.8938906513775748</v>
+        <v>1.977281930570499</v>
       </c>
       <c r="I7">
-        <v>0.9400661239512047</v>
+        <v>1.94797345277199</v>
       </c>
       <c r="J7">
-        <v>0.01506910102110504</v>
+        <v>0.04202837474177645</v>
       </c>
       <c r="K7">
-        <v>1.032449588152474</v>
+        <v>0.9770856415562434</v>
       </c>
       <c r="L7">
-        <v>0.2925305266589504</v>
+        <v>0.5306377944276335</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.629178396026674</v>
+        <v>3.155677671079744</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.325249360031449</v>
+        <v>1.345749222942999</v>
       </c>
       <c r="C8">
-        <v>0.1078573199826707</v>
+        <v>0.0328528436194091</v>
       </c>
       <c r="D8">
-        <v>0.2686630077678558</v>
+        <v>0.481716909046142</v>
       </c>
       <c r="E8">
-        <v>0.06043299094071131</v>
+        <v>0.1405648165970845</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.343170536062274</v>
+        <v>2.395364086511378</v>
       </c>
       <c r="H8">
-        <v>0.908500310761525</v>
+        <v>1.968803561121348</v>
       </c>
       <c r="I8">
-        <v>0.9557468945101988</v>
+        <v>1.939762006928802</v>
       </c>
       <c r="J8">
-        <v>0.01493821104083315</v>
+        <v>0.04191406176931034</v>
       </c>
       <c r="K8">
-        <v>1.233879311460043</v>
+        <v>1.023750726033256</v>
       </c>
       <c r="L8">
-        <v>0.3262703291607636</v>
+        <v>0.5354027312681353</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.563155581435581</v>
+        <v>3.126882419420852</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.73749864974485</v>
+        <v>1.43848255459892</v>
       </c>
       <c r="C9">
-        <v>0.146367608993188</v>
+        <v>0.04370945098318657</v>
       </c>
       <c r="D9">
-        <v>0.3175460825964507</v>
+        <v>0.4883827840613009</v>
       </c>
       <c r="E9">
-        <v>0.06645786097893946</v>
+        <v>0.1405829555438558</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.468869779447317</v>
+        <v>2.39884341644192</v>
       </c>
       <c r="H9">
-        <v>0.947441842009809</v>
+        <v>1.957605429073027</v>
       </c>
       <c r="I9">
-        <v>0.9980808969313841</v>
+        <v>1.929369330203251</v>
       </c>
       <c r="J9">
-        <v>0.01471498510256719</v>
+        <v>0.04171663718693219</v>
       </c>
       <c r="K9">
-        <v>1.63921674004439</v>
+        <v>1.11952963905452</v>
       </c>
       <c r="L9">
-        <v>0.3959430193795868</v>
+        <v>0.5466024350472196</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.447000342851929</v>
+        <v>3.076733767715929</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.049316944813029</v>
+        <v>1.509857735194998</v>
       </c>
       <c r="C10">
-        <v>0.175374345154907</v>
+        <v>0.05169880575272146</v>
       </c>
       <c r="D10">
-        <v>0.3555401856565084</v>
+        <v>0.4942392263607189</v>
       </c>
       <c r="E10">
-        <v>0.07127168098890024</v>
+        <v>0.1408160399458005</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.574521719392607</v>
+        <v>2.406433429169368</v>
       </c>
       <c r="H10">
-        <v>0.9832587792783158</v>
+        <v>1.952681306578626</v>
       </c>
       <c r="I10">
-        <v>1.037333918814461</v>
+        <v>1.925212454088644</v>
       </c>
       <c r="J10">
-        <v>0.01457207516250181</v>
+        <v>0.0415877572492267</v>
       </c>
       <c r="K10">
-        <v>1.945493456291274</v>
+        <v>1.192497450114928</v>
       </c>
       <c r="L10">
-        <v>0.4497545908758127</v>
+        <v>0.5559591823768528</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.370518442747375</v>
+        <v>3.043739036098081</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.193631470565379</v>
+        <v>1.54303060442021</v>
       </c>
       <c r="C11">
-        <v>0.1887856571125894</v>
+        <v>0.0553369407261215</v>
       </c>
       <c r="D11">
-        <v>0.3733605503213369</v>
+        <v>0.4971111215399304</v>
       </c>
       <c r="E11">
-        <v>0.07355763954190309</v>
+        <v>0.1409695529629538</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.625974526393946</v>
+        <v>2.410980893612106</v>
       </c>
       <c r="H11">
-        <v>1.001344728208039</v>
+        <v>1.951157351613631</v>
       </c>
       <c r="I11">
-        <v>1.057225482894118</v>
+        <v>1.924076409813615</v>
       </c>
       <c r="J11">
-        <v>0.01451182792943273</v>
+        <v>0.04153260858088359</v>
       </c>
       <c r="K11">
-        <v>2.087196574967834</v>
+        <v>1.226256644820012</v>
       </c>
       <c r="L11">
-        <v>0.4749220097446596</v>
+        <v>0.5604603067621952</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.337828949313511</v>
+        <v>3.029564251361492</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.248681169881593</v>
+        <v>1.555693177619219</v>
       </c>
       <c r="C12">
-        <v>0.1939007541209179</v>
+        <v>0.05671518812208376</v>
       </c>
       <c r="D12">
-        <v>0.3801934318248925</v>
+        <v>0.4982284394370851</v>
       </c>
       <c r="E12">
-        <v>0.07443817019997567</v>
+        <v>0.1410344898095595</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.645991704936733</v>
+        <v>2.412860386200947</v>
       </c>
       <c r="H12">
-        <v>1.008471933584758</v>
+        <v>1.950683130302224</v>
       </c>
       <c r="I12">
-        <v>1.065074711703922</v>
+        <v>1.923754731624619</v>
       </c>
       <c r="J12">
-        <v>0.01448971718610892</v>
+        <v>0.041512223373946</v>
       </c>
       <c r="K12">
-        <v>2.141245405681673</v>
+        <v>1.239121529289889</v>
       </c>
       <c r="L12">
-        <v>0.4845618629583157</v>
+        <v>0.5621998785414632</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.325769445803935</v>
+        <v>3.02431666005085</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.236806622619042</v>
+        <v>1.5529615939368</v>
       </c>
       <c r="C13">
-        <v>0.1927974095863334</v>
+        <v>0.05641833233862315</v>
       </c>
       <c r="D13">
-        <v>0.3787179550258202</v>
+        <v>0.4979864812870858</v>
       </c>
       <c r="E13">
-        <v>0.07424785212670315</v>
+        <v>0.1410202022175078</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.641656170201031</v>
+        <v>2.412448599718147</v>
       </c>
       <c r="H13">
-        <v>1.006924229643545</v>
+        <v>1.950780688861727</v>
       </c>
       <c r="I13">
-        <v>1.06336974764173</v>
+        <v>1.923819185098097</v>
       </c>
       <c r="J13">
-        <v>0.01449444751489803</v>
+        <v>0.04151659155773091</v>
       </c>
       <c r="K13">
-        <v>2.129586928533456</v>
+        <v>1.236347248793948</v>
       </c>
       <c r="L13">
-        <v>0.4824807007781118</v>
+        <v>0.5618236713053193</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.328352188429761</v>
+        <v>3.025441480517493</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.198152128557297</v>
+        <v>1.544070346052365</v>
       </c>
       <c r="C14">
-        <v>0.1892057141177332</v>
+        <v>0.05545031849604243</v>
       </c>
       <c r="D14">
-        <v>0.3739209527947196</v>
+        <v>0.4972024473257619</v>
       </c>
       <c r="E14">
-        <v>0.07362977654178593</v>
+        <v>0.140974759109433</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.627610392654105</v>
+        <v>2.411132364463498</v>
       </c>
       <c r="H14">
-        <v>1.001925382273413</v>
+        <v>1.95111627609208</v>
       </c>
       <c r="I14">
-        <v>1.057864750686974</v>
+        <v>1.924047770545087</v>
       </c>
       <c r="J14">
-        <v>0.01450999464887159</v>
+        <v>0.04153092150006277</v>
       </c>
       <c r="K14">
-        <v>2.091635124705846</v>
+        <v>1.22731342502513</v>
       </c>
       <c r="L14">
-        <v>0.4757128282372065</v>
+        <v>0.5606027195796628</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.336830304929855</v>
+        <v>3.029130121653864</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.174528785529901</v>
+        <v>1.538637302952793</v>
       </c>
       <c r="C15">
-        <v>0.187010624247506</v>
+        <v>0.05485745640838502</v>
       </c>
       <c r="D15">
-        <v>0.3709939144750365</v>
+        <v>0.4967260814116798</v>
       </c>
       <c r="E15">
-        <v>0.07325315933169207</v>
+        <v>0.1409478093986998</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.619077792972917</v>
+        <v>2.410346640556668</v>
       </c>
       <c r="H15">
-        <v>0.9989003506033214</v>
+        <v>1.95133522639253</v>
       </c>
       <c r="I15">
-        <v>1.05453477809499</v>
+        <v>1.924201916646879</v>
       </c>
       <c r="J15">
-        <v>0.01451960993929458</v>
+        <v>0.04153976385215863</v>
       </c>
       <c r="K15">
-        <v>2.068440671817825</v>
+        <v>1.221790486763581</v>
       </c>
       <c r="L15">
-        <v>0.4715818986009452</v>
+        <v>0.5598594188798103</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.342065507365497</v>
+        <v>3.031405162395977</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.039939149337613</v>
+        <v>1.507703932613822</v>
       </c>
       <c r="C16">
-        <v>0.1745026865843187</v>
+        <v>0.05146112260614188</v>
       </c>
       <c r="D16">
-        <v>0.3543870109737384</v>
+        <v>0.4940557149677147</v>
       </c>
       <c r="E16">
-        <v>0.07112431159156785</v>
+        <v>0.1408069609920943</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.571231194926213</v>
+        <v>2.406158274272173</v>
       </c>
       <c r="H16">
-        <v>0.9821146187718739</v>
+        <v>1.952795300818337</v>
       </c>
       <c r="I16">
-        <v>1.036076921938246</v>
+        <v>1.92530188490386</v>
       </c>
       <c r="J16">
-        <v>0.0145761098458812</v>
+        <v>0.04159143119316155</v>
       </c>
       <c r="K16">
-        <v>1.936284586032997</v>
+        <v>1.19030256238895</v>
       </c>
       <c r="L16">
-        <v>0.4481245700251577</v>
+        <v>0.555669939204023</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.372698501737716</v>
+        <v>3.044682193099746</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.958036222970236</v>
+        <v>1.488907252679553</v>
       </c>
       <c r="C17">
-        <v>0.166888527543378</v>
+        <v>0.04937855839844474</v>
       </c>
       <c r="D17">
-        <v>0.344341824980134</v>
+        <v>0.4924706869315969</v>
       </c>
       <c r="E17">
-        <v>0.06984368351192671</v>
+        <v>0.1407326998455041</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.542778560547163</v>
+        <v>2.403869265339097</v>
       </c>
       <c r="H17">
-        <v>0.9722904054097228</v>
+        <v>1.953874335522556</v>
       </c>
       <c r="I17">
-        <v>1.02529136670563</v>
+        <v>1.926170007165517</v>
       </c>
       <c r="J17">
-        <v>0.01461200317783051</v>
+        <v>0.04162401721710873</v>
       </c>
       <c r="K17">
-        <v>1.855852072295107</v>
+        <v>1.171130400617187</v>
       </c>
       <c r="L17">
-        <v>0.4339177515638113</v>
+        <v>0.553162434544106</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.392040957508385</v>
+        <v>3.053041049347186</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.911157024314917</v>
+        <v>1.478162187458906</v>
       </c>
       <c r="C18">
-        <v>0.1625290403291615</v>
+        <v>0.04818107270261862</v>
       </c>
       <c r="D18">
-        <v>0.3386141262067355</v>
+        <v>0.49157858200806</v>
       </c>
       <c r="E18">
-        <v>0.06911607937815489</v>
+        <v>0.1406944573728239</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.526729609784866</v>
+        <v>2.402655726134697</v>
       </c>
       <c r="H18">
-        <v>0.9668071705859518</v>
+        <v>1.954562371866018</v>
       </c>
       <c r="I18">
-        <v>1.01927780181785</v>
+        <v>1.9267403889788</v>
       </c>
       <c r="J18">
-        <v>0.01463309515540656</v>
+        <v>0.04164308745501621</v>
       </c>
       <c r="K18">
-        <v>1.809810027139122</v>
+        <v>1.160156353948423</v>
       </c>
       <c r="L18">
-        <v>0.4258104669151948</v>
+        <v>0.5517432213662801</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.403363023945751</v>
+        <v>3.057927402596007</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.895322554118223</v>
+        <v>1.474535493249789</v>
       </c>
       <c r="C19">
-        <v>0.1610562652832641</v>
+        <v>0.04777568393267018</v>
       </c>
       <c r="D19">
-        <v>0.3366831986688226</v>
+        <v>0.491279892832992</v>
       </c>
       <c r="E19">
-        <v>0.06887123628229475</v>
+        <v>0.1406822776578096</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.521348705147034</v>
+        <v>2.402262538183749</v>
       </c>
       <c r="H19">
-        <v>0.9649787904486118</v>
+        <v>1.954806908972301</v>
       </c>
       <c r="I19">
-        <v>1.01727364475051</v>
+        <v>1.926945716560539</v>
       </c>
       <c r="J19">
-        <v>0.01464031279525457</v>
+        <v>0.04164960063781109</v>
       </c>
       <c r="K19">
-        <v>1.79425749834769</v>
+        <v>1.15644989073138</v>
       </c>
       <c r="L19">
-        <v>0.4230761828266765</v>
+        <v>0.5512666596704463</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.407229788550978</v>
+        <v>3.059595328724306</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.966730886022049</v>
+        <v>1.49090133441365</v>
       </c>
       <c r="C20">
-        <v>0.1676969623745777</v>
+        <v>0.04960021447796237</v>
       </c>
       <c r="D20">
-        <v>0.3454059220886165</v>
+        <v>0.4926373919618641</v>
       </c>
       <c r="E20">
-        <v>0.06997907180161178</v>
+        <v>0.1407401425510457</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.545774344259002</v>
+        <v>2.404102269853098</v>
       </c>
       <c r="H20">
-        <v>0.9733187411337667</v>
+        <v>1.953752495089077</v>
       </c>
       <c r="I20">
-        <v>1.026419675252384</v>
+        <v>1.926070239845075</v>
       </c>
       <c r="J20">
-        <v>0.01460813587281828</v>
+        <v>0.04162051448636817</v>
       </c>
       <c r="K20">
-        <v>1.864391089301733</v>
+        <v>1.17316579886085</v>
       </c>
       <c r="L20">
-        <v>0.435423383963041</v>
+        <v>0.5534269791101423</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.389961434171276</v>
+        <v>3.052143103670268</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.209494621559429</v>
+        <v>1.546679191323506</v>
       </c>
       <c r="C21">
-        <v>0.1902596448181129</v>
+        <v>0.05573463208526164</v>
       </c>
       <c r="D21">
-        <v>0.3753275868786403</v>
+        <v>0.4974319291815874</v>
       </c>
       <c r="E21">
-        <v>0.07381090734824625</v>
+        <v>0.1409879223541957</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.631721127233135</v>
+        <v>2.411514700689196</v>
       </c>
       <c r="H21">
-        <v>1.003385934125191</v>
+        <v>1.951014914983915</v>
       </c>
       <c r="I21">
-        <v>1.059472903661856</v>
+        <v>1.923977684660429</v>
       </c>
       <c r="J21">
-        <v>0.01450540882292195</v>
+        <v>0.0415266989375267</v>
       </c>
       <c r="K21">
-        <v>2.102771536931016</v>
+        <v>1.229964682213847</v>
       </c>
       <c r="L21">
-        <v>0.4776976563109514</v>
+        <v>0.5609603910028227</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.33433126822603</v>
+        <v>3.02804341853232</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.370516017253181</v>
+        <v>1.58372013331109</v>
       </c>
       <c r="C22">
-        <v>0.2052214644488544</v>
+        <v>0.05974713244604857</v>
       </c>
       <c r="D22">
-        <v>0.3953807580362678</v>
+        <v>0.5007390574751156</v>
       </c>
       <c r="E22">
-        <v>0.07640257006827866</v>
+        <v>0.1411895137790502</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.691023771841515</v>
+        <v>2.417277011307021</v>
       </c>
       <c r="H22">
-        <v>1.024670533347773</v>
+        <v>1.949825293010718</v>
       </c>
       <c r="I22">
-        <v>1.082933933729691</v>
+        <v>1.923242581680192</v>
       </c>
       <c r="J22">
-        <v>0.01444238225313299</v>
+        <v>0.04146828920607915</v>
       </c>
       <c r="K22">
-        <v>2.260858922509243</v>
+        <v>1.26755806532546</v>
       </c>
       <c r="L22">
-        <v>0.5059701302091071</v>
+        <v>0.5660884213105959</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.299843845980071</v>
+        <v>3.012992902689184</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.284343485591535</v>
+        <v>1.56389714909858</v>
       </c>
       <c r="C23">
-        <v>0.1972143733793246</v>
+        <v>0.05760527417668015</v>
       </c>
       <c r="D23">
-        <v>0.3846298148442457</v>
+        <v>0.4989581219933683</v>
       </c>
       <c r="E23">
-        <v>0.07501098426302022</v>
+        <v>0.1410782999555913</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.659070225336791</v>
+        <v>2.414117557702525</v>
       </c>
       <c r="H23">
-        <v>1.013153722125111</v>
+        <v>1.950405390752223</v>
       </c>
       <c r="I23">
-        <v>1.070233746519193</v>
+        <v>1.923577059325567</v>
       </c>
       <c r="J23">
-        <v>0.01447563769050575</v>
+        <v>0.04149919848653472</v>
       </c>
       <c r="K23">
-        <v>2.176258288485343</v>
+        <v>1.247450692639944</v>
       </c>
       <c r="L23">
-        <v>0.4908179520882072</v>
+        <v>0.5633328128316464</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.318073309418807</v>
+        <v>3.020961571561507</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.962799384785797</v>
+        <v>1.489999618777631</v>
       </c>
       <c r="C24">
-        <v>0.1673314133459769</v>
+        <v>0.04950000436566881</v>
       </c>
       <c r="D24">
-        <v>0.3449246966680306</v>
+        <v>0.4925619649664981</v>
       </c>
       <c r="E24">
-        <v>0.06991783590490641</v>
+        <v>0.1407367638372534</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.544418991840416</v>
+        <v>2.40399660940426</v>
       </c>
       <c r="H24">
-        <v>0.972853318665301</v>
+        <v>1.95380736829631</v>
       </c>
       <c r="I24">
-        <v>1.025908985684012</v>
+        <v>1.926115122584555</v>
       </c>
       <c r="J24">
-        <v>0.01460988286105103</v>
+        <v>0.04162209702394071</v>
       </c>
       <c r="K24">
-        <v>1.860529981279228</v>
+        <v>1.172245444887125</v>
       </c>
       <c r="L24">
-        <v>0.4347425001935221</v>
+        <v>0.5533073087798925</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.390900959278014</v>
+        <v>3.052548813411839</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.624568984240483</v>
+        <v>1.412825185954773</v>
       </c>
       <c r="C25">
-        <v>0.1358433965900758</v>
+        <v>0.04077040301595503</v>
       </c>
       <c r="D25">
-        <v>0.3039834347797523</v>
+        <v>0.4864108443779713</v>
       </c>
       <c r="E25">
-        <v>0.06476373461047302</v>
+        <v>0.1405393708336113</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.432687737699325</v>
+        <v>2.39701860997863</v>
       </c>
       <c r="H25">
-        <v>0.9357134667684193</v>
+        <v>1.960054339033746</v>
       </c>
       <c r="I25">
-        <v>0.9852810186029402</v>
+        <v>1.931569783396291</v>
       </c>
       <c r="J25">
-        <v>0.01477172584379582</v>
+        <v>0.041767196815929</v>
       </c>
       <c r="K25">
-        <v>1.528241443855677</v>
+        <v>1.093162253309117</v>
       </c>
       <c r="L25">
-        <v>0.3766713224770371</v>
+        <v>0.5433742628909499</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.476925212996328</v>
+        <v>3.089624125118185</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.358186072990634</v>
+        <v>1.381349303707111</v>
       </c>
       <c r="C2">
-        <v>0.03435164755344999</v>
+        <v>0.1131158735819326</v>
       </c>
       <c r="D2">
-        <v>0.4825267819929024</v>
+        <v>0.2752048701494374</v>
       </c>
       <c r="E2">
-        <v>0.1405418174164286</v>
+        <v>0.06122464369271974</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.395263194951099</v>
+        <v>1.359167454544433</v>
       </c>
       <c r="H2">
-        <v>1.966873903713463</v>
+        <v>0.9131232151733002</v>
       </c>
       <c r="I2">
-        <v>1.937923625467633</v>
+        <v>0.9607420470250716</v>
       </c>
       <c r="J2">
-        <v>0.04188490355932917</v>
+        <v>0.01490498719085775</v>
       </c>
       <c r="K2">
-        <v>1.036683649955421</v>
+        <v>1.289081093128885</v>
       </c>
       <c r="L2">
-        <v>0.536819484399345</v>
+        <v>0.3356329093284955</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.11950807204979</v>
+        <v>1.546142441346944</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.322521896112931</v>
+        <v>1.219438062740153</v>
       </c>
       <c r="C3">
-        <v>0.03000589728560499</v>
+        <v>0.09791653952051149</v>
       </c>
       <c r="D3">
-        <v>0.4802977967310227</v>
+        <v>0.2564385025512763</v>
       </c>
       <c r="E3">
-        <v>0.1406360495989247</v>
+        <v>0.05896947335476277</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.396181371587545</v>
+        <v>1.314118606957791</v>
       </c>
       <c r="H3">
-        <v>1.972882305250238</v>
+        <v>0.9004725098566411</v>
       </c>
       <c r="I3">
-        <v>1.943688605464473</v>
+        <v>0.9471057198336155</v>
       </c>
       <c r="J3">
-        <v>0.04197150157384888</v>
+        <v>0.01500386406734067</v>
       </c>
       <c r="K3">
-        <v>0.9994991532403219</v>
+        <v>1.129711168216744</v>
       </c>
       <c r="L3">
-        <v>0.5328514373847639</v>
+        <v>0.308733005393691</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.141374819484959</v>
+        <v>1.596475590042367</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.301299087843944</v>
+        <v>1.121252490695866</v>
       </c>
       <c r="C4">
-        <v>0.02733937641094997</v>
+        <v>0.08865998145479637</v>
       </c>
       <c r="D4">
-        <v>0.4791285239344631</v>
+        <v>0.2452447964367508</v>
       </c>
       <c r="E4">
-        <v>0.1407397137084914</v>
+        <v>0.0576505660982356</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.397784435433266</v>
+        <v>1.288609744703891</v>
       </c>
       <c r="H4">
-        <v>1.977256265914662</v>
+        <v>0.8939238532998246</v>
       </c>
       <c r="I4">
-        <v>1.947948332756972</v>
+        <v>0.9401014924304505</v>
       </c>
       <c r="J4">
-        <v>0.0420280558851478</v>
+        <v>0.01506873470477532</v>
       </c>
       <c r="K4">
-        <v>0.9772068731510899</v>
+        <v>1.032978788228348</v>
       </c>
       <c r="L4">
-        <v>0.5306493398677787</v>
+        <v>0.2926181905255163</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.155597615098401</v>
+        <v>1.628995921394313</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.292820888855829</v>
+        <v>1.081521153561823</v>
       </c>
       <c r="C5">
-        <v>0.02625316874153327</v>
+        <v>0.08490361771326604</v>
       </c>
       <c r="D5">
-        <v>0.4787022508438383</v>
+        <v>0.2407612277879707</v>
       </c>
       <c r="E5">
-        <v>0.1407935008334622</v>
+        <v>0.05712896744275042</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.398699065556059</v>
+        <v>1.278727342400558</v>
       </c>
       <c r="H5">
-        <v>1.979211031126383</v>
+        <v>0.8915489263124527</v>
       </c>
       <c r="I5">
-        <v>1.949865351541881</v>
+        <v>0.9375763456699033</v>
       </c>
       <c r="J5">
-        <v>0.04205195503304981</v>
+        <v>0.01509620734348061</v>
       </c>
       <c r="K5">
-        <v>0.9682585057409199</v>
+        <v>0.9938121581752171</v>
       </c>
       <c r="L5">
-        <v>0.5298109853888633</v>
+        <v>0.2861457335439184</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.161593829268995</v>
+        <v>1.642644123137728</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.291423388869475</v>
+        <v>1.074939900389808</v>
       </c>
       <c r="C6">
-        <v>0.02607282940918765</v>
+        <v>0.08428073488640564</v>
       </c>
       <c r="D6">
-        <v>0.4786345040824358</v>
+        <v>0.2400213092948604</v>
       </c>
       <c r="E6">
-        <v>0.1408031300627535</v>
+        <v>0.05704329574168554</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.398866726128276</v>
+        <v>1.277116544740153</v>
       </c>
       <c r="H6">
-        <v>1.979546031742458</v>
+        <v>0.8911719504105946</v>
       </c>
       <c r="I6">
-        <v>1.950194614590224</v>
+        <v>0.9371765038648476</v>
       </c>
       <c r="J6">
-        <v>0.04205597503987146</v>
+        <v>0.01510083156953068</v>
       </c>
       <c r="K6">
-        <v>0.9667808554555108</v>
+        <v>0.9873229998167972</v>
       </c>
       <c r="L6">
-        <v>0.5296753448277514</v>
+        <v>0.2850765070364645</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.16260159481979</v>
+        <v>1.644934017556764</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.301184057818773</v>
+        <v>1.120715562848346</v>
       </c>
       <c r="C7">
-        <v>0.02732472576529688</v>
+        <v>0.08860926225717947</v>
       </c>
       <c r="D7">
-        <v>0.4791225716263483</v>
+        <v>0.2451840198972661</v>
       </c>
       <c r="E7">
-        <v>0.1407403923290662</v>
+        <v>0.05764346825407429</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.397795712150241</v>
+        <v>1.288474427596583</v>
       </c>
       <c r="H7">
-        <v>1.977281930570499</v>
+        <v>0.8938906513774612</v>
       </c>
       <c r="I7">
-        <v>1.94797345277199</v>
+        <v>0.9400661239511976</v>
       </c>
       <c r="J7">
-        <v>0.04202837474177645</v>
+        <v>0.01506910102105796</v>
       </c>
       <c r="K7">
-        <v>0.9770856415562434</v>
+        <v>1.032449588152446</v>
       </c>
       <c r="L7">
-        <v>0.5306377944276335</v>
+        <v>0.292530526658922</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.155677671079744</v>
+        <v>1.629178396026724</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.345749222942999</v>
+        <v>1.325249360031393</v>
       </c>
       <c r="C8">
-        <v>0.0328528436194091</v>
+        <v>0.1078573199828838</v>
       </c>
       <c r="D8">
-        <v>0.481716909046142</v>
+        <v>0.2686630077679553</v>
       </c>
       <c r="E8">
-        <v>0.1405648165970845</v>
+        <v>0.06043299094070598</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.395364086511378</v>
+        <v>1.343170536062289</v>
       </c>
       <c r="H8">
-        <v>1.968803561121348</v>
+        <v>0.9085003107615108</v>
       </c>
       <c r="I8">
-        <v>1.939762006928802</v>
+        <v>0.9557468945101775</v>
       </c>
       <c r="J8">
-        <v>0.04191406176931034</v>
+        <v>0.01493821104087023</v>
       </c>
       <c r="K8">
-        <v>1.023750726033256</v>
+        <v>1.233879311460072</v>
       </c>
       <c r="L8">
-        <v>0.5354027312681353</v>
+        <v>0.3262703291606499</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.126882419420852</v>
+        <v>1.563155581435623</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.43848255459892</v>
+        <v>1.737498649745021</v>
       </c>
       <c r="C9">
-        <v>0.04370945098318657</v>
+        <v>0.1463676089932022</v>
       </c>
       <c r="D9">
-        <v>0.4883827840613009</v>
+        <v>0.3175460825963512</v>
       </c>
       <c r="E9">
-        <v>0.1405829555438558</v>
+        <v>0.06645786097893236</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.39884341644192</v>
+        <v>1.468869779447374</v>
       </c>
       <c r="H9">
-        <v>1.957605429073027</v>
+        <v>0.9474418420099227</v>
       </c>
       <c r="I9">
-        <v>1.929369330203251</v>
+        <v>0.9980808969313983</v>
       </c>
       <c r="J9">
-        <v>0.04171663718693219</v>
+        <v>0.0147149851025552</v>
       </c>
       <c r="K9">
-        <v>1.11952963905452</v>
+        <v>1.639216740044276</v>
       </c>
       <c r="L9">
-        <v>0.5466024350472196</v>
+        <v>0.3959430193795583</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.076733767715929</v>
+        <v>1.447000342851929</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.509857735194998</v>
+        <v>2.049316944812858</v>
       </c>
       <c r="C10">
-        <v>0.05169880575272146</v>
+        <v>0.1753743451548644</v>
       </c>
       <c r="D10">
-        <v>0.4942392263607189</v>
+        <v>0.3555401856564515</v>
       </c>
       <c r="E10">
-        <v>0.1408160399458005</v>
+        <v>0.07127168098889669</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.406433429169368</v>
+        <v>1.574521719392692</v>
       </c>
       <c r="H10">
-        <v>1.952681306578626</v>
+        <v>0.9832587792782022</v>
       </c>
       <c r="I10">
-        <v>1.925212454088644</v>
+        <v>1.03733391881444</v>
       </c>
       <c r="J10">
-        <v>0.0415877572492267</v>
+        <v>0.01457207516253556</v>
       </c>
       <c r="K10">
-        <v>1.192497450114928</v>
+        <v>1.945493456291388</v>
       </c>
       <c r="L10">
-        <v>0.5559591823768528</v>
+        <v>0.4497545908759548</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.043739036098081</v>
+        <v>1.370518442747404</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.54303060442021</v>
+        <v>2.193631470565151</v>
       </c>
       <c r="C11">
-        <v>0.0553369407261215</v>
+        <v>0.1887856571124189</v>
       </c>
       <c r="D11">
-        <v>0.4971111215399304</v>
+        <v>0.3733605503213653</v>
       </c>
       <c r="E11">
-        <v>0.1409695529629538</v>
+        <v>0.07355763954192795</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.410980893612106</v>
+        <v>1.62597452639389</v>
       </c>
       <c r="H11">
-        <v>1.951157351613631</v>
+        <v>1.001344728207982</v>
       </c>
       <c r="I11">
-        <v>1.924076409813615</v>
+        <v>1.057225482894118</v>
       </c>
       <c r="J11">
-        <v>0.04153260858088359</v>
+        <v>0.01451182792942873</v>
       </c>
       <c r="K11">
-        <v>1.226256644820012</v>
+        <v>2.087196574967692</v>
       </c>
       <c r="L11">
-        <v>0.5604603067621952</v>
+        <v>0.4749220097446454</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.029564251361492</v>
+        <v>1.337828949313561</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.555693177619219</v>
+        <v>2.248681169881536</v>
       </c>
       <c r="C12">
-        <v>0.05671518812208376</v>
+        <v>0.1939007541210742</v>
       </c>
       <c r="D12">
-        <v>0.4982284394370851</v>
+        <v>0.3801934318248215</v>
       </c>
       <c r="E12">
-        <v>0.1410344898095595</v>
+        <v>0.07443817019996857</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.412860386200947</v>
+        <v>1.645991704936705</v>
       </c>
       <c r="H12">
-        <v>1.950683130302224</v>
+        <v>1.00847193358473</v>
       </c>
       <c r="I12">
-        <v>1.923754731624619</v>
+        <v>1.065074711703922</v>
       </c>
       <c r="J12">
-        <v>0.041512223373946</v>
+        <v>0.01448971718619063</v>
       </c>
       <c r="K12">
-        <v>1.239121529289889</v>
+        <v>2.141245405681673</v>
       </c>
       <c r="L12">
-        <v>0.5621998785414632</v>
+        <v>0.4845618629583015</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.02431666005085</v>
+        <v>1.325769445803942</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.5529615939368</v>
+        <v>2.236806622619156</v>
       </c>
       <c r="C13">
-        <v>0.05641833233862315</v>
+        <v>0.1927974095864329</v>
       </c>
       <c r="D13">
-        <v>0.4979864812870858</v>
+        <v>0.3787179550257065</v>
       </c>
       <c r="E13">
-        <v>0.1410202022175078</v>
+        <v>0.07424785212665341</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.412448599718147</v>
+        <v>1.641656170201173</v>
       </c>
       <c r="H13">
-        <v>1.950780688861727</v>
+        <v>1.006924229643545</v>
       </c>
       <c r="I13">
-        <v>1.923819185098097</v>
+        <v>1.063369747641751</v>
       </c>
       <c r="J13">
-        <v>0.04151659155773091</v>
+        <v>0.01449444751499751</v>
       </c>
       <c r="K13">
-        <v>1.236347248793948</v>
+        <v>2.129586928533485</v>
       </c>
       <c r="L13">
-        <v>0.5618236713053193</v>
+        <v>0.4824807007780549</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.025441480517493</v>
+        <v>1.328352188429861</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.544070346052365</v>
+        <v>2.198152128557354</v>
       </c>
       <c r="C14">
-        <v>0.05545031849604243</v>
+        <v>0.1892057141175627</v>
       </c>
       <c r="D14">
-        <v>0.4972024473257619</v>
+        <v>0.3739209527947338</v>
       </c>
       <c r="E14">
-        <v>0.140974759109433</v>
+        <v>0.07362977654180369</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.411132364463498</v>
+        <v>1.627610392654105</v>
       </c>
       <c r="H14">
-        <v>1.95111627609208</v>
+        <v>1.001925382273413</v>
       </c>
       <c r="I14">
-        <v>1.924047770545087</v>
+        <v>1.057864750686988</v>
       </c>
       <c r="J14">
-        <v>0.04153092150006277</v>
+        <v>0.01450999464882496</v>
       </c>
       <c r="K14">
-        <v>1.22731342502513</v>
+        <v>2.091635124705874</v>
       </c>
       <c r="L14">
-        <v>0.5606027195796628</v>
+        <v>0.4757128282371212</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.029130121653864</v>
+        <v>1.33683030492994</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.538637302952793</v>
+        <v>2.174528785530015</v>
       </c>
       <c r="C15">
-        <v>0.05485745640838502</v>
+        <v>0.1870106242473355</v>
       </c>
       <c r="D15">
-        <v>0.4967260814116798</v>
+        <v>0.3709939144750365</v>
       </c>
       <c r="E15">
-        <v>0.1409478093986998</v>
+        <v>0.07325315933170273</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.410346640556668</v>
+        <v>1.619077792972973</v>
       </c>
       <c r="H15">
-        <v>1.95133522639253</v>
+        <v>0.9989003506031793</v>
       </c>
       <c r="I15">
-        <v>1.924201916646879</v>
+        <v>1.054534778095004</v>
       </c>
       <c r="J15">
-        <v>0.04153976385215863</v>
+        <v>0.01451960993929635</v>
       </c>
       <c r="K15">
-        <v>1.221790486763581</v>
+        <v>2.068440671817854</v>
       </c>
       <c r="L15">
-        <v>0.5598594188798103</v>
+        <v>0.4715818986009452</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.031405162395977</v>
+        <v>1.342065507365568</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.507703932613822</v>
+        <v>2.039939149337499</v>
       </c>
       <c r="C16">
-        <v>0.05146112260614188</v>
+        <v>0.1745026865843613</v>
       </c>
       <c r="D16">
-        <v>0.4940557149677147</v>
+        <v>0.3543870109737242</v>
       </c>
       <c r="E16">
-        <v>0.1408069609920943</v>
+        <v>0.07112431159159271</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.406158274272173</v>
+        <v>1.571231194926185</v>
       </c>
       <c r="H16">
-        <v>1.952795300818337</v>
+        <v>0.9821146187718739</v>
       </c>
       <c r="I16">
-        <v>1.92530188490386</v>
+        <v>1.036076921938239</v>
       </c>
       <c r="J16">
-        <v>0.04159143119316155</v>
+        <v>0.01457610984580349</v>
       </c>
       <c r="K16">
-        <v>1.19030256238895</v>
+        <v>1.93628458603294</v>
       </c>
       <c r="L16">
-        <v>0.555669939204023</v>
+        <v>0.4481245700250867</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.044682193099746</v>
+        <v>1.372698501737688</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.488907252679553</v>
+        <v>1.95803622297035</v>
       </c>
       <c r="C17">
-        <v>0.04937855839844474</v>
+        <v>0.166888527543037</v>
       </c>
       <c r="D17">
-        <v>0.4924706869315969</v>
+        <v>0.3443418249801482</v>
       </c>
       <c r="E17">
-        <v>0.1407326998455041</v>
+        <v>0.06984368351189829</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.403869265339097</v>
+        <v>1.542778560547134</v>
       </c>
       <c r="H17">
-        <v>1.953874335522556</v>
+        <v>0.9722904054097228</v>
       </c>
       <c r="I17">
-        <v>1.926170007165517</v>
+        <v>1.025291366705616</v>
       </c>
       <c r="J17">
-        <v>0.04162401721710873</v>
+        <v>0.01461200317770217</v>
       </c>
       <c r="K17">
-        <v>1.171130400617187</v>
+        <v>1.855852072295136</v>
       </c>
       <c r="L17">
-        <v>0.553162434544106</v>
+        <v>0.4339177515639108</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.053041049347186</v>
+        <v>1.392040957508385</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.478162187458906</v>
+        <v>1.911157024314889</v>
       </c>
       <c r="C18">
-        <v>0.04818107270261862</v>
+        <v>0.1625290403290194</v>
       </c>
       <c r="D18">
-        <v>0.49157858200806</v>
+        <v>0.3386141262066502</v>
       </c>
       <c r="E18">
-        <v>0.1406944573728239</v>
+        <v>0.069116079378162</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.402655726134697</v>
+        <v>1.526729609784837</v>
       </c>
       <c r="H18">
-        <v>1.954562371866018</v>
+        <v>0.9668071705859518</v>
       </c>
       <c r="I18">
-        <v>1.9267403889788</v>
+        <v>1.019277801817857</v>
       </c>
       <c r="J18">
-        <v>0.04164308745501621</v>
+        <v>0.01463309515546385</v>
       </c>
       <c r="K18">
-        <v>1.160156353948423</v>
+        <v>1.809810027139036</v>
       </c>
       <c r="L18">
-        <v>0.5517432213662801</v>
+        <v>0.4258104669151237</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.057927402596007</v>
+        <v>1.403363023945772</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.474535493249789</v>
+        <v>1.895322554118252</v>
       </c>
       <c r="C19">
-        <v>0.04777568393267018</v>
+        <v>0.161056265283321</v>
       </c>
       <c r="D19">
-        <v>0.491279892832992</v>
+        <v>0.3366831986689647</v>
       </c>
       <c r="E19">
-        <v>0.1406822776578096</v>
+        <v>0.0688712362822983</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.402262538183749</v>
+        <v>1.521348705146977</v>
       </c>
       <c r="H19">
-        <v>1.954806908972301</v>
+        <v>0.9649787904484981</v>
       </c>
       <c r="I19">
-        <v>1.926945716560539</v>
+        <v>1.017273644750517</v>
       </c>
       <c r="J19">
-        <v>0.04164960063781109</v>
+        <v>0.01464031279520839</v>
       </c>
       <c r="K19">
-        <v>1.15644989073138</v>
+        <v>1.794257498347832</v>
       </c>
       <c r="L19">
-        <v>0.5512666596704463</v>
+        <v>0.4230761828267759</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.059595328724306</v>
+        <v>1.407229788550971</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.49090133441365</v>
+        <v>1.966730886022106</v>
       </c>
       <c r="C20">
-        <v>0.04960021447796237</v>
+        <v>0.1676969623746629</v>
       </c>
       <c r="D20">
-        <v>0.4926373919618641</v>
+        <v>0.3454059220886165</v>
       </c>
       <c r="E20">
-        <v>0.1407401425510457</v>
+        <v>0.06997907180163665</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.404102269853098</v>
+        <v>1.54577434425903</v>
       </c>
       <c r="H20">
-        <v>1.953752495089077</v>
+        <v>0.9733187411337667</v>
       </c>
       <c r="I20">
-        <v>1.926070239845075</v>
+        <v>1.026419675252384</v>
       </c>
       <c r="J20">
-        <v>0.04162051448636817</v>
+        <v>0.01460813587285603</v>
       </c>
       <c r="K20">
-        <v>1.17316579886085</v>
+        <v>1.864391089301762</v>
       </c>
       <c r="L20">
-        <v>0.5534269791101423</v>
+        <v>0.4354233839631263</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.052143103670268</v>
+        <v>1.389961434171333</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.546679191323506</v>
+        <v>2.209494621559486</v>
       </c>
       <c r="C21">
-        <v>0.05573463208526164</v>
+        <v>0.1902596448181129</v>
       </c>
       <c r="D21">
-        <v>0.4974319291815874</v>
+        <v>0.3753275868786545</v>
       </c>
       <c r="E21">
-        <v>0.1409879223541957</v>
+        <v>0.07381090734824269</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.411514700689196</v>
+        <v>1.631721127233192</v>
       </c>
       <c r="H21">
-        <v>1.951014914983915</v>
+        <v>1.003385934125163</v>
       </c>
       <c r="I21">
-        <v>1.923977684660429</v>
+        <v>1.059472903661842</v>
       </c>
       <c r="J21">
-        <v>0.0415266989375267</v>
+        <v>0.0145054088228953</v>
       </c>
       <c r="K21">
-        <v>1.229964682213847</v>
+        <v>2.102771536931044</v>
       </c>
       <c r="L21">
-        <v>0.5609603910028227</v>
+        <v>0.4776976563109798</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.02804341853232</v>
+        <v>1.334331268226009</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.58372013331109</v>
+        <v>2.370516017253181</v>
       </c>
       <c r="C22">
-        <v>0.05974713244604857</v>
+        <v>0.2052214644488686</v>
       </c>
       <c r="D22">
-        <v>0.5007390574751156</v>
+        <v>0.3953807580363673</v>
       </c>
       <c r="E22">
-        <v>0.1411895137790502</v>
+        <v>0.07640257006828222</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.417277011307021</v>
+        <v>1.691023771841429</v>
       </c>
       <c r="H22">
-        <v>1.949825293010718</v>
+        <v>1.024670533347773</v>
       </c>
       <c r="I22">
-        <v>1.923242581680192</v>
+        <v>1.082933933729684</v>
       </c>
       <c r="J22">
-        <v>0.04146828920607915</v>
+        <v>0.01444238225317562</v>
       </c>
       <c r="K22">
-        <v>1.26755806532546</v>
+        <v>2.260858922509243</v>
       </c>
       <c r="L22">
-        <v>0.5660884213105959</v>
+        <v>0.5059701302090218</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.012992902689184</v>
+        <v>1.299843845980085</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.56389714909858</v>
+        <v>2.284343485591592</v>
       </c>
       <c r="C23">
-        <v>0.05760527417668015</v>
+        <v>0.1972143733796656</v>
       </c>
       <c r="D23">
-        <v>0.4989581219933683</v>
+        <v>0.3846298148439615</v>
       </c>
       <c r="E23">
-        <v>0.1410782999555913</v>
+        <v>0.07501098426302377</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.414117557702525</v>
+        <v>1.659070225336734</v>
       </c>
       <c r="H23">
-        <v>1.950405390752223</v>
+        <v>1.013153722124997</v>
       </c>
       <c r="I23">
-        <v>1.923577059325567</v>
+        <v>1.070233746519193</v>
       </c>
       <c r="J23">
-        <v>0.04149919848653472</v>
+        <v>0.01447563769045734</v>
       </c>
       <c r="K23">
-        <v>1.247450692639944</v>
+        <v>2.176258288485172</v>
       </c>
       <c r="L23">
-        <v>0.5633328128316464</v>
+        <v>0.4908179520881362</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.020961571561507</v>
+        <v>1.318073309418878</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.489999618777631</v>
+        <v>1.962799384785797</v>
       </c>
       <c r="C24">
-        <v>0.04950000436566881</v>
+        <v>0.1673314133459627</v>
       </c>
       <c r="D24">
-        <v>0.4925619649664981</v>
+        <v>0.3449246966679738</v>
       </c>
       <c r="E24">
-        <v>0.1407367638372534</v>
+        <v>0.06991783590490641</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.40399660940426</v>
+        <v>1.544418991840416</v>
       </c>
       <c r="H24">
-        <v>1.95380736829631</v>
+        <v>0.9728533186653578</v>
       </c>
       <c r="I24">
-        <v>1.926115122584555</v>
+        <v>1.025908985684019</v>
       </c>
       <c r="J24">
-        <v>0.04162209702394071</v>
+        <v>0.01460988286108256</v>
       </c>
       <c r="K24">
-        <v>1.172245444887125</v>
+        <v>1.860529981279257</v>
       </c>
       <c r="L24">
-        <v>0.5533073087798925</v>
+        <v>0.434742500193579</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.052548813411839</v>
+        <v>1.390900959277978</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.412825185954773</v>
+        <v>1.624568984240568</v>
       </c>
       <c r="C25">
-        <v>0.04077040301595503</v>
+        <v>0.1358433965903458</v>
       </c>
       <c r="D25">
-        <v>0.4864108443779713</v>
+        <v>0.3039834347796244</v>
       </c>
       <c r="E25">
-        <v>0.1405393708336113</v>
+        <v>0.06476373461048368</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.39701860997863</v>
+        <v>1.432687737699339</v>
       </c>
       <c r="H25">
-        <v>1.960054339033746</v>
+        <v>0.9357134667685187</v>
       </c>
       <c r="I25">
-        <v>1.931569783396291</v>
+        <v>0.9852810186029188</v>
       </c>
       <c r="J25">
-        <v>0.041767196815929</v>
+        <v>0.01477172584373143</v>
       </c>
       <c r="K25">
-        <v>1.093162253309117</v>
+        <v>1.528241443855677</v>
       </c>
       <c r="L25">
-        <v>0.5433742628909499</v>
+        <v>0.3766713224770797</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.089624125118185</v>
+        <v>1.476925212996264</v>
       </c>
       <c r="O25">
         <v>0</v>
